--- a/data/pca/factorExposure/factorExposure_2010-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01505309149557396</v>
+        <v>-0.01692630727722055</v>
       </c>
       <c r="C2">
-        <v>0.001096806075161572</v>
+        <v>-0.0009793605262396639</v>
       </c>
       <c r="D2">
-        <v>-0.009421998061120863</v>
+        <v>-0.007842596082842488</v>
       </c>
       <c r="E2">
-        <v>-0.01445606165964083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0001617377531581645</v>
+      </c>
+      <c r="F2">
+        <v>-0.01011011819678036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1273204002325261</v>
+        <v>-0.09339125701575315</v>
       </c>
       <c r="C4">
-        <v>0.02477046422006758</v>
+        <v>-0.0156526537855879</v>
       </c>
       <c r="D4">
-        <v>-0.05408523233512217</v>
+        <v>-0.08421847493393883</v>
       </c>
       <c r="E4">
-        <v>-0.004234468547985319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.03056532869839148</v>
+      </c>
+      <c r="F4">
+        <v>0.03191635158310719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1195661752784358</v>
+        <v>-0.1549234598630539</v>
       </c>
       <c r="C6">
-        <v>-0.02236428366849595</v>
+        <v>-0.02460626953732613</v>
       </c>
       <c r="D6">
-        <v>0.01016087127719259</v>
+        <v>0.02266731958021983</v>
       </c>
       <c r="E6">
-        <v>-0.02082525557857865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01048299097720767</v>
+      </c>
+      <c r="F6">
+        <v>0.04998649430439751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07611755673498616</v>
+        <v>-0.05936121828472719</v>
       </c>
       <c r="C7">
-        <v>-0.0006817153501692488</v>
+        <v>0.001039395568892699</v>
       </c>
       <c r="D7">
-        <v>-0.06320877303119922</v>
+        <v>-0.05283197556236711</v>
       </c>
       <c r="E7">
-        <v>-0.04611744063734986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01385032292082252</v>
+      </c>
+      <c r="F7">
+        <v>0.04708732548456512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05280660234529064</v>
+        <v>-0.05783418087124206</v>
       </c>
       <c r="C8">
-        <v>0.002560273329275899</v>
+        <v>0.01341710969899185</v>
       </c>
       <c r="D8">
-        <v>-0.03063459665214962</v>
+        <v>-0.03250494735418991</v>
       </c>
       <c r="E8">
-        <v>-0.02149645741637642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01523372933040116</v>
+      </c>
+      <c r="F8">
+        <v>-0.02748524352009583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09648896118535749</v>
+        <v>-0.07125998216685715</v>
       </c>
       <c r="C9">
-        <v>0.03641362142199008</v>
+        <v>-0.01166188140520384</v>
       </c>
       <c r="D9">
-        <v>-0.03525081420376244</v>
+        <v>-0.08401114168965472</v>
       </c>
       <c r="E9">
-        <v>-0.01443722125593826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02510488784035106</v>
+      </c>
+      <c r="F9">
+        <v>0.05032099464365088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07997436378743389</v>
+        <v>-0.09514736241846598</v>
       </c>
       <c r="C10">
-        <v>-0.1218437566966189</v>
+        <v>-0.01800878993832627</v>
       </c>
       <c r="D10">
-        <v>0.1494913243802689</v>
+        <v>0.1699301270273423</v>
       </c>
       <c r="E10">
-        <v>-0.001070015343433093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03951271714318103</v>
+      </c>
+      <c r="F10">
+        <v>-0.05082229549896311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0873891014277961</v>
+        <v>-0.08731621329683091</v>
       </c>
       <c r="C11">
-        <v>0.01097218380131103</v>
+        <v>-0.01136650897254655</v>
       </c>
       <c r="D11">
-        <v>-0.04950914200272905</v>
+        <v>-0.1156281328670453</v>
       </c>
       <c r="E11">
-        <v>-0.03741251051289331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04884081568021854</v>
+      </c>
+      <c r="F11">
+        <v>0.02053159408393285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09248162765923965</v>
+        <v>-0.09179995212181249</v>
       </c>
       <c r="C12">
-        <v>0.01946983663913277</v>
+        <v>-0.008850544724367974</v>
       </c>
       <c r="D12">
-        <v>-0.07248349619965834</v>
+        <v>-0.1247881140219524</v>
       </c>
       <c r="E12">
-        <v>-0.04546410911173301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04869152665246559</v>
+      </c>
+      <c r="F12">
+        <v>0.02074960154637173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04373268838830614</v>
+        <v>-0.04296331960432621</v>
       </c>
       <c r="C13">
-        <v>0.0395662863901577</v>
+        <v>-0.003930394608808492</v>
       </c>
       <c r="D13">
-        <v>-0.008277377759842493</v>
+        <v>-0.0478083599563872</v>
       </c>
       <c r="E13">
-        <v>-0.001284408733782754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0122127413019598</v>
+      </c>
+      <c r="F13">
+        <v>0.01314194842012682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03022938223560878</v>
+        <v>-0.02232540310118657</v>
       </c>
       <c r="C14">
-        <v>-0.00251814513807056</v>
+        <v>-0.01408698638992968</v>
       </c>
       <c r="D14">
-        <v>-0.004487594180357063</v>
+        <v>-0.03283125853444527</v>
       </c>
       <c r="E14">
-        <v>0.004240201658413961</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01829255035184775</v>
+      </c>
+      <c r="F14">
+        <v>0.01847889380990877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02563838747320023</v>
+        <v>-0.03144309663064745</v>
       </c>
       <c r="C15">
-        <v>0.01909723193887536</v>
+        <v>-0.005211040503444059</v>
       </c>
       <c r="D15">
-        <v>-0.002370273781676132</v>
+        <v>-0.04579374118687605</v>
       </c>
       <c r="E15">
-        <v>-0.01522069305525711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.008211528830208058</v>
+      </c>
+      <c r="F15">
+        <v>0.02957721158488838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09354814524642206</v>
+        <v>-0.07301984928987131</v>
       </c>
       <c r="C16">
-        <v>0.003181717730172925</v>
+        <v>-0.002770908123961016</v>
       </c>
       <c r="D16">
-        <v>-0.06321708604016119</v>
+        <v>-0.1197867373020001</v>
       </c>
       <c r="E16">
-        <v>-0.04530973079665828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06379304794479716</v>
+      </c>
+      <c r="F16">
+        <v>0.02820823155866113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02413083695253345</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003848419034267232</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01966924010225422</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.0063030975954227</v>
+      </c>
+      <c r="F18">
+        <v>-0.01591471048685807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05001126336878568</v>
+        <v>-0.06047376631663379</v>
       </c>
       <c r="C20">
-        <v>-0.008248595950451734</v>
+        <v>-0.0003184371471537967</v>
       </c>
       <c r="D20">
-        <v>-0.04261928070773065</v>
+        <v>-0.07517358658324376</v>
       </c>
       <c r="E20">
-        <v>0.002632054159376703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05526882560406721</v>
+      </c>
+      <c r="F20">
+        <v>0.02814553084449074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02591411172947906</v>
+        <v>-0.03856947583769524</v>
       </c>
       <c r="C21">
-        <v>-0.01036027398755905</v>
+        <v>-0.006685330852794806</v>
       </c>
       <c r="D21">
-        <v>0.00404519423650117</v>
+        <v>-0.03614837261567833</v>
       </c>
       <c r="E21">
-        <v>0.03664648063529078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.008214560329536172</v>
+      </c>
+      <c r="F21">
+        <v>-0.01861074866733609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03008916019697072</v>
+        <v>-0.04338852223790509</v>
       </c>
       <c r="C22">
-        <v>-0.01810615251622461</v>
+        <v>-0.001080458253791005</v>
       </c>
       <c r="D22">
-        <v>0.03630569839079852</v>
+        <v>0.0002842537452650887</v>
       </c>
       <c r="E22">
-        <v>-0.07241635028810331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02762280791840524</v>
+      </c>
+      <c r="F22">
+        <v>-0.002955678083110479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03028206258330497</v>
+        <v>-0.04344083832915557</v>
       </c>
       <c r="C23">
-        <v>-0.01827235727860959</v>
+        <v>-0.001102361204136439</v>
       </c>
       <c r="D23">
-        <v>0.03581819401814269</v>
+        <v>0.0001581830273963197</v>
       </c>
       <c r="E23">
-        <v>-0.07424676788524009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02797306753568358</v>
+      </c>
+      <c r="F23">
+        <v>-0.002488765234210919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0984312983171815</v>
+        <v>-0.07946709943960904</v>
       </c>
       <c r="C24">
-        <v>0.007690417908232757</v>
+        <v>-0.002994769416632892</v>
       </c>
       <c r="D24">
-        <v>-0.06677906299951578</v>
+        <v>-0.1198001742582358</v>
       </c>
       <c r="E24">
-        <v>-0.03568639284878861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05160742626756389</v>
+      </c>
+      <c r="F24">
+        <v>0.02209792136053413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09930720913053991</v>
+        <v>-0.08464833051681529</v>
       </c>
       <c r="C25">
-        <v>0.002507486424879063</v>
+        <v>-0.005152223928764125</v>
       </c>
       <c r="D25">
-        <v>-0.05137348176814009</v>
+        <v>-0.1085566710941999</v>
       </c>
       <c r="E25">
-        <v>-0.03968383142719641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03431269894963712</v>
+      </c>
+      <c r="F25">
+        <v>0.02878658040865908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03707379149762167</v>
+        <v>-0.05455905442032418</v>
       </c>
       <c r="C26">
-        <v>-0.02977430803286742</v>
+        <v>-0.01450755948843757</v>
       </c>
       <c r="D26">
-        <v>0.009280076648486821</v>
+        <v>-0.04093032365943733</v>
       </c>
       <c r="E26">
-        <v>0.003378994339379495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02674037627612248</v>
+      </c>
+      <c r="F26">
+        <v>-0.008842326804241261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08188452360913488</v>
+        <v>-0.143513526084431</v>
       </c>
       <c r="C28">
-        <v>-0.143393333335723</v>
+        <v>-0.01691210919779318</v>
       </c>
       <c r="D28">
-        <v>0.2881483712158426</v>
+        <v>0.2647807355293054</v>
       </c>
       <c r="E28">
-        <v>-0.0005815130661583101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06988411035674991</v>
+      </c>
+      <c r="F28">
+        <v>0.02711794231689802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02999438265543608</v>
+        <v>-0.02707842590064725</v>
       </c>
       <c r="C29">
-        <v>0.00843611871661124</v>
+        <v>-0.008339362530425845</v>
       </c>
       <c r="D29">
-        <v>0.002736723259367214</v>
+        <v>-0.03185594197564414</v>
       </c>
       <c r="E29">
-        <v>0.001734169319549144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01155073692744715</v>
+      </c>
+      <c r="F29">
+        <v>-0.01224521919731124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1166436174570436</v>
+        <v>-0.06248491678579915</v>
       </c>
       <c r="C30">
-        <v>0.06136348900270047</v>
+        <v>-0.004312860777887134</v>
       </c>
       <c r="D30">
-        <v>-0.08724350620133428</v>
+        <v>-0.08720629537338392</v>
       </c>
       <c r="E30">
-        <v>-0.04406728112064021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02387232410588161</v>
+      </c>
+      <c r="F30">
+        <v>0.09902747206188359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02916053679717672</v>
+        <v>-0.04810882900583859</v>
       </c>
       <c r="C31">
-        <v>-0.002443754582644831</v>
+        <v>-0.01498737991452714</v>
       </c>
       <c r="D31">
-        <v>-0.02358050922837397</v>
+        <v>-0.02629296031698955</v>
       </c>
       <c r="E31">
-        <v>-0.01613493713166061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02809677499695385</v>
+      </c>
+      <c r="F31">
+        <v>-0.005471702172488792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06426692717729492</v>
+        <v>-0.04796507839156653</v>
       </c>
       <c r="C32">
-        <v>-0.01168207751481371</v>
+        <v>0.0005476027456325474</v>
       </c>
       <c r="D32">
-        <v>-0.02859069504542481</v>
+        <v>-0.03145412975680742</v>
       </c>
       <c r="E32">
-        <v>0.002930948331648915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02964288520086316</v>
+      </c>
+      <c r="F32">
+        <v>0.006308287216864066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.108043514660991</v>
+        <v>-0.08950867621587881</v>
       </c>
       <c r="C33">
-        <v>0.03572816690801576</v>
+        <v>-0.008361817391049955</v>
       </c>
       <c r="D33">
-        <v>-0.0446182325390392</v>
+        <v>-0.09722721196967918</v>
       </c>
       <c r="E33">
-        <v>-0.07956764513330941</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04735067602380055</v>
+      </c>
+      <c r="F33">
+        <v>0.04014561832437887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0880834645024417</v>
+        <v>-0.06728213603904271</v>
       </c>
       <c r="C34">
-        <v>0.005974114832488816</v>
+        <v>-0.0118411836726223</v>
       </c>
       <c r="D34">
-        <v>-0.0655467985578668</v>
+        <v>-0.1001609085728746</v>
       </c>
       <c r="E34">
-        <v>-0.04435670530826334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03559835584135434</v>
+      </c>
+      <c r="F34">
+        <v>0.03854921237348848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0147034833032973</v>
+        <v>-0.02437602489137567</v>
       </c>
       <c r="C35">
-        <v>0.0142967126963186</v>
+        <v>-0.002310687240745912</v>
       </c>
       <c r="D35">
-        <v>-0.004603262537159527</v>
+        <v>-0.01147115786638711</v>
       </c>
       <c r="E35">
-        <v>-0.0004335074394440491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01096985448376047</v>
+      </c>
+      <c r="F35">
+        <v>0.008940426680989674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02593021657987419</v>
+        <v>-0.02463491345069957</v>
       </c>
       <c r="C36">
-        <v>0.007405044720863267</v>
+        <v>-0.007493397736436855</v>
       </c>
       <c r="D36">
-        <v>0.006384703591863568</v>
+        <v>-0.03712376134195744</v>
       </c>
       <c r="E36">
-        <v>0.0008589986894832271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01739570280549872</v>
+      </c>
+      <c r="F36">
+        <v>0.01425351591716469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.00678793299756851</v>
+        <v>-0.001487431793124259</v>
       </c>
       <c r="C38">
-        <v>0.001751318041138505</v>
+        <v>-0.0002257832206601034</v>
       </c>
       <c r="D38">
-        <v>-0.003861606274200931</v>
+        <v>-0.0009003026233665911</v>
       </c>
       <c r="E38">
-        <v>-0.005023825867024492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00119910739327448</v>
+      </c>
+      <c r="F38">
+        <v>-0.001006142265755883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.148181771124631</v>
+        <v>-0.107588648080672</v>
       </c>
       <c r="C39">
-        <v>0.03926933893805819</v>
+        <v>-0.01650724651534963</v>
       </c>
       <c r="D39">
-        <v>-0.1041634379932081</v>
+        <v>-0.1553507091645557</v>
       </c>
       <c r="E39">
-        <v>-0.06551296455087949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06208410220089985</v>
+      </c>
+      <c r="F39">
+        <v>0.02409674787359101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.007906085661307084</v>
+        <v>-0.03712228330967442</v>
       </c>
       <c r="C40">
-        <v>0.00537236921816469</v>
+        <v>-0.007119438310688977</v>
       </c>
       <c r="D40">
-        <v>-0.02427350633669663</v>
+        <v>-0.0336389887327562</v>
       </c>
       <c r="E40">
-        <v>0.01264263266748696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.003058706874659466</v>
+      </c>
+      <c r="F40">
+        <v>-0.01297300150975443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01913175689728942</v>
+        <v>-0.02627204314918776</v>
       </c>
       <c r="C41">
-        <v>-0.02692177704422082</v>
+        <v>-0.006538980092040955</v>
       </c>
       <c r="D41">
-        <v>-0.00806554593934332</v>
+        <v>-0.0115807775440492</v>
       </c>
       <c r="E41">
-        <v>-0.005899343353190513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01238008882062646</v>
+      </c>
+      <c r="F41">
+        <v>-0.008915003545705203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02875832599096616</v>
+        <v>-0.04006494624944561</v>
       </c>
       <c r="C43">
-        <v>-0.03101733942704775</v>
+        <v>-0.00662843662214161</v>
       </c>
       <c r="D43">
-        <v>-0.01202961527260336</v>
+        <v>-0.02171454785557465</v>
       </c>
       <c r="E43">
-        <v>-0.03211491125323273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02474498412670565</v>
+      </c>
+      <c r="F43">
+        <v>-0.01444128160220935</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1394705649706781</v>
+        <v>-0.07586918727668857</v>
       </c>
       <c r="C44">
-        <v>0.06610930558800301</v>
+        <v>-0.02135286067102606</v>
       </c>
       <c r="D44">
-        <v>-0.1002234393732146</v>
+        <v>-0.09484192799936708</v>
       </c>
       <c r="E44">
-        <v>-0.05681772548212063</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07358015334068162</v>
+      </c>
+      <c r="F44">
+        <v>0.1797022107018985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0147678212336675</v>
+        <v>-0.02248522298701498</v>
       </c>
       <c r="C46">
-        <v>-0.02474340169881527</v>
+        <v>-0.003441070103308861</v>
       </c>
       <c r="D46">
-        <v>0.01192753977506444</v>
+        <v>-0.01300879869723291</v>
       </c>
       <c r="E46">
-        <v>-0.02918085458463691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02319307968290948</v>
+      </c>
+      <c r="F46">
+        <v>0.002141135556841619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03576552321661001</v>
+        <v>-0.05158822463312404</v>
       </c>
       <c r="C47">
-        <v>-0.01046254126669507</v>
+        <v>-0.003179924429217534</v>
       </c>
       <c r="D47">
-        <v>-0.008546391861813026</v>
+        <v>-0.01356863309319049</v>
       </c>
       <c r="E47">
-        <v>0.0001431572691095805</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02277180841640709</v>
+      </c>
+      <c r="F47">
+        <v>-0.04162586516901301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03952187720360544</v>
+        <v>-0.04747339561307893</v>
       </c>
       <c r="C48">
-        <v>0.01041660885101583</v>
+        <v>-0.002570100325471301</v>
       </c>
       <c r="D48">
-        <v>0.007527541141502991</v>
+        <v>-0.05088461887663654</v>
       </c>
       <c r="E48">
-        <v>-0.0002808273962336025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004701636811284814</v>
+      </c>
+      <c r="F48">
+        <v>0.009814531829527906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2234593449548965</v>
+        <v>-0.2030989025570604</v>
       </c>
       <c r="C49">
-        <v>-0.06510012657918222</v>
+        <v>-0.01759022659354662</v>
       </c>
       <c r="D49">
-        <v>-0.02463593509340337</v>
+        <v>0.01005533799651524</v>
       </c>
       <c r="E49">
-        <v>0.01086566130334215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03306039460426995</v>
+      </c>
+      <c r="F49">
+        <v>0.02815290013382642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0389842231974022</v>
+        <v>-0.04806833219731928</v>
       </c>
       <c r="C50">
-        <v>-0.01123795459581053</v>
+        <v>-0.01103003205108626</v>
       </c>
       <c r="D50">
-        <v>-0.02660067790004543</v>
+        <v>-0.02601013167646364</v>
       </c>
       <c r="E50">
-        <v>-0.009106483926249413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.03000874474954113</v>
+      </c>
+      <c r="F50">
+        <v>0.006291270283963871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009432515905687106</v>
+        <v>-0.002147096836917582</v>
       </c>
       <c r="C51">
-        <v>-0.00844859081600172</v>
+        <v>-0.0005389885980412173</v>
       </c>
       <c r="D51">
-        <v>0.0154766520280762</v>
+        <v>0.002279828660897335</v>
       </c>
       <c r="E51">
-        <v>-0.0156184734701418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>7.18054788386392e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.004457124854219038</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1317736562811672</v>
+        <v>-0.1449750583716814</v>
       </c>
       <c r="C52">
-        <v>0.06455526483390872</v>
+        <v>-0.01398176250440018</v>
       </c>
       <c r="D52">
-        <v>-0.06997837728516619</v>
+        <v>-0.05049168005664838</v>
       </c>
       <c r="E52">
-        <v>-0.006332514669743968</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02373357381439497</v>
+      </c>
+      <c r="F52">
+        <v>0.03437160117264728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1549441370154252</v>
+        <v>-0.1739151025984093</v>
       </c>
       <c r="C53">
-        <v>0.008022820903548663</v>
+        <v>-0.01685565218932517</v>
       </c>
       <c r="D53">
-        <v>-0.006870235300383019</v>
+        <v>-0.010334683713682</v>
       </c>
       <c r="E53">
-        <v>-0.001335460525286437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03531012270902257</v>
+      </c>
+      <c r="F53">
+        <v>0.06397093381958834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05048897390611508</v>
+        <v>-0.02173342521439389</v>
       </c>
       <c r="C54">
-        <v>-0.001211743634684678</v>
+        <v>-0.01222430615360181</v>
       </c>
       <c r="D54">
-        <v>-0.01767725286199395</v>
+        <v>-0.03402288468293018</v>
       </c>
       <c r="E54">
-        <v>-0.008580555274214864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01526855210035889</v>
+      </c>
+      <c r="F54">
+        <v>-0.001846951782766931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0867360530850592</v>
+        <v>-0.1142050573540896</v>
       </c>
       <c r="C55">
-        <v>0.02630514084635577</v>
+        <v>-0.01552664668496928</v>
       </c>
       <c r="D55">
-        <v>-0.001207497293806817</v>
+        <v>-0.01072270462611396</v>
       </c>
       <c r="E55">
-        <v>-0.0429239246541492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0309630266648061</v>
+      </c>
+      <c r="F55">
+        <v>0.04256759347429426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1596401728483826</v>
+        <v>-0.1775036758239597</v>
       </c>
       <c r="C56">
-        <v>0.007856774033696997</v>
+        <v>-0.01436982794947629</v>
       </c>
       <c r="D56">
-        <v>-0.04014618188450685</v>
+        <v>-0.006928328496266286</v>
       </c>
       <c r="E56">
-        <v>-0.0265997069085768</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04027925090557886</v>
+      </c>
+      <c r="F56">
+        <v>0.04266396184739775</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04259022169932231</v>
+        <v>-0.04653569138783963</v>
       </c>
       <c r="C58">
-        <v>-0.01776805584986518</v>
+        <v>-0.001423985883483206</v>
       </c>
       <c r="D58">
-        <v>0.005945049737252813</v>
+        <v>-0.06596102850792222</v>
       </c>
       <c r="E58">
-        <v>0.01675260384983311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02387157599091833</v>
+      </c>
+      <c r="F58">
+        <v>-0.04248550222980173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1450109689135202</v>
+        <v>-0.1723712591320934</v>
       </c>
       <c r="C59">
-        <v>-0.1350268902380087</v>
+        <v>-0.0175198041728802</v>
       </c>
       <c r="D59">
-        <v>0.2338405782823652</v>
+        <v>0.2223278899334811</v>
       </c>
       <c r="E59">
-        <v>-0.02911966266774867</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04955120279400649</v>
+      </c>
+      <c r="F59">
+        <v>-0.02697765622093622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2751925261054375</v>
+        <v>-0.2355709934788573</v>
       </c>
       <c r="C60">
-        <v>0.04506065102910647</v>
+        <v>0.004197902438996073</v>
       </c>
       <c r="D60">
-        <v>-0.1109341079182271</v>
+        <v>-0.04625090189617954</v>
       </c>
       <c r="E60">
-        <v>0.04159336973514743</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01078677933260791</v>
+      </c>
+      <c r="F60">
+        <v>-0.03282351934837172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1210675614011016</v>
+        <v>-0.08304637317791952</v>
       </c>
       <c r="C61">
-        <v>0.0350893816258602</v>
+        <v>-0.01262187807025738</v>
       </c>
       <c r="D61">
-        <v>-0.0499490776805719</v>
+        <v>-0.1154849460804378</v>
       </c>
       <c r="E61">
-        <v>-0.04125959754225744</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04200993224911456</v>
+      </c>
+      <c r="F61">
+        <v>0.01410188409720383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1613378311403185</v>
+        <v>-0.1702731226422732</v>
       </c>
       <c r="C62">
-        <v>0.007507029324973042</v>
+        <v>-0.01793768723258355</v>
       </c>
       <c r="D62">
-        <v>-0.0268868667162953</v>
+        <v>-0.01062809118289125</v>
       </c>
       <c r="E62">
-        <v>-0.01531851720224299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03620133417464193</v>
+      </c>
+      <c r="F62">
+        <v>0.02324437849682325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04281333240620733</v>
+        <v>-0.04221233410101276</v>
       </c>
       <c r="C63">
-        <v>0.004180483928794918</v>
+        <v>-0.002600309320893836</v>
       </c>
       <c r="D63">
-        <v>0.008337044010493939</v>
+        <v>-0.05448523715376379</v>
       </c>
       <c r="E63">
-        <v>-0.01561602709324166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02137120262240095</v>
+      </c>
+      <c r="F63">
+        <v>0.009595653103124041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09361400061686073</v>
+        <v>-0.1116055000972963</v>
       </c>
       <c r="C64">
-        <v>-0.004896292242024479</v>
+        <v>-0.0111451797514408</v>
       </c>
       <c r="D64">
-        <v>-0.01676707824601829</v>
+        <v>-0.04378996648400216</v>
       </c>
       <c r="E64">
-        <v>-0.00312961333237441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02065676317440869</v>
+      </c>
+      <c r="F64">
+        <v>0.02591814153798281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1193080750559964</v>
+        <v>-0.146004402811942</v>
       </c>
       <c r="C65">
-        <v>0.008980270177513985</v>
+        <v>-0.03127830529680761</v>
       </c>
       <c r="D65">
-        <v>0.02243537914437857</v>
+        <v>0.04274978224813441</v>
       </c>
       <c r="E65">
-        <v>0.002323382064819909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0003512232031285591</v>
+      </c>
+      <c r="F65">
+        <v>0.04670395446820812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1679526297791712</v>
+        <v>-0.1285751063448863</v>
       </c>
       <c r="C66">
-        <v>0.03996918557283183</v>
+        <v>-0.01428550593851332</v>
       </c>
       <c r="D66">
-        <v>-0.1333494945267657</v>
+        <v>-0.1442834299061766</v>
       </c>
       <c r="E66">
-        <v>-0.07970279280583054</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06884266243915466</v>
+      </c>
+      <c r="F66">
+        <v>0.02876708886016423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06807570625178315</v>
+        <v>-0.0619419015172403</v>
       </c>
       <c r="C67">
-        <v>0.03238845577903414</v>
+        <v>-0.002668274457190825</v>
       </c>
       <c r="D67">
-        <v>-0.007845586258710612</v>
+        <v>-0.05325649431835473</v>
       </c>
       <c r="E67">
-        <v>-0.0818005142310759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0172556706304739</v>
+      </c>
+      <c r="F67">
+        <v>-0.03036854975638708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07406406733250731</v>
+        <v>-0.1172064314643295</v>
       </c>
       <c r="C68">
-        <v>-0.1254261692574797</v>
+        <v>-0.02749133469662514</v>
       </c>
       <c r="D68">
-        <v>0.249403251777857</v>
+        <v>0.2605708388545592</v>
       </c>
       <c r="E68">
-        <v>0.003470059763519254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08853450913932104</v>
+      </c>
+      <c r="F68">
+        <v>0.02821527004308359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03386686074089666</v>
+        <v>-0.03901838260344669</v>
       </c>
       <c r="C69">
-        <v>0.007537084807378521</v>
+        <v>-0.0008399150374730092</v>
       </c>
       <c r="D69">
-        <v>0.0156091056998005</v>
+        <v>-0.009331690147337469</v>
       </c>
       <c r="E69">
-        <v>-0.02544001679448964</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02423447865898435</v>
+      </c>
+      <c r="F69">
+        <v>-0.007394008406629626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02317192094325008</v>
+        <v>-0.0620617054185854</v>
       </c>
       <c r="C70">
-        <v>0.01126266930889018</v>
+        <v>0.02876079174347544</v>
       </c>
       <c r="D70">
-        <v>0.03502245284531436</v>
+        <v>-0.02995860401804397</v>
       </c>
       <c r="E70">
-        <v>-0.02718933894934685</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04834386162391881</v>
+      </c>
+      <c r="F70">
+        <v>-0.2472219366540552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08643655266553929</v>
+        <v>-0.1365163644747635</v>
       </c>
       <c r="C71">
-        <v>-0.1317728051922809</v>
+        <v>-0.03175761276715474</v>
       </c>
       <c r="D71">
-        <v>0.2681600095720232</v>
+        <v>0.2752364291609137</v>
       </c>
       <c r="E71">
-        <v>-0.01000941007160076</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09740681179313945</v>
+      </c>
+      <c r="F71">
+        <v>0.0342630567567194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1365260427838829</v>
+        <v>-0.1409723963778803</v>
       </c>
       <c r="C72">
-        <v>-0.03496384779803353</v>
+        <v>-0.02485594863742281</v>
       </c>
       <c r="D72">
-        <v>0.01423551584622905</v>
+        <v>-0.004369428380943592</v>
       </c>
       <c r="E72">
-        <v>-0.01082218210323645</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04410258700619262</v>
+      </c>
+      <c r="F72">
+        <v>0.02821396643108069</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2305388580364875</v>
+        <v>-0.2029969272737671</v>
       </c>
       <c r="C73">
-        <v>-0.01648893331493178</v>
+        <v>-0.01177608766597955</v>
       </c>
       <c r="D73">
-        <v>-0.04166039505700987</v>
+        <v>-0.01590324337647246</v>
       </c>
       <c r="E73">
-        <v>-0.07861919081600893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06510381093710818</v>
+      </c>
+      <c r="F73">
+        <v>0.02307628341737734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1119780337315021</v>
+        <v>-0.0944802872003988</v>
       </c>
       <c r="C74">
-        <v>-0.01060424853133416</v>
+        <v>-0.01228797568142942</v>
       </c>
       <c r="D74">
-        <v>-0.03753744448951736</v>
+        <v>-0.0204886511166232</v>
       </c>
       <c r="E74">
-        <v>-0.03178777680610063</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04809181591778845</v>
+      </c>
+      <c r="F74">
+        <v>0.04861982808237542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.124809337008568</v>
+        <v>-0.1293926188107307</v>
       </c>
       <c r="C75">
-        <v>0.00196329856470544</v>
+        <v>-0.02657814595536315</v>
       </c>
       <c r="D75">
-        <v>-0.05011773510150193</v>
+        <v>-0.0341544872351272</v>
       </c>
       <c r="E75">
-        <v>-0.01854194821553421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06054627601839886</v>
+      </c>
+      <c r="F75">
+        <v>0.01170721506250032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01523914255587325</v>
+        <v>-0.003197933401134014</v>
       </c>
       <c r="C76">
-        <v>-0.009270087044865686</v>
+        <v>-0.0007676808697230068</v>
       </c>
       <c r="D76">
-        <v>0.0150991171163738</v>
+        <v>0.002255780070316423</v>
       </c>
       <c r="E76">
-        <v>-0.009566907901311343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004791179750155946</v>
+      </c>
+      <c r="F76">
+        <v>0.003540981280653846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08229568821728801</v>
+        <v>-0.07815143345918664</v>
       </c>
       <c r="C77">
-        <v>0.04908044645572025</v>
+        <v>-0.008516740414366191</v>
       </c>
       <c r="D77">
-        <v>-0.1042064324184564</v>
+        <v>-0.117132878641768</v>
       </c>
       <c r="E77">
-        <v>0.0001986491130500872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03970187131775187</v>
+      </c>
+      <c r="F77">
+        <v>0.03395558074284866</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.08964414074609676</v>
+        <v>-0.1035555816202757</v>
       </c>
       <c r="C78">
-        <v>-0.1148650451122969</v>
+        <v>-0.03977912272898351</v>
       </c>
       <c r="D78">
-        <v>-0.06194122709964837</v>
+        <v>-0.1180689500062882</v>
       </c>
       <c r="E78">
-        <v>-0.1805041507026308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08205078679768148</v>
+      </c>
+      <c r="F78">
+        <v>0.06014404350183541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1394360765596344</v>
+        <v>-0.1640240496391901</v>
       </c>
       <c r="C79">
-        <v>-0.01834607261164123</v>
+        <v>-0.02066916659046608</v>
       </c>
       <c r="D79">
-        <v>-0.06310678134613792</v>
+        <v>-0.01958320606075177</v>
       </c>
       <c r="E79">
-        <v>-0.007685866747111837</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.0490799797364015</v>
+      </c>
+      <c r="F79">
+        <v>0.002044307262515198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0872665825230427</v>
+        <v>-0.0807802512698817</v>
       </c>
       <c r="C80">
-        <v>0.04828080437155276</v>
+        <v>0.0007658478266466496</v>
       </c>
       <c r="D80">
-        <v>-0.05704734956669454</v>
+        <v>-0.05597829665445535</v>
       </c>
       <c r="E80">
-        <v>-0.0590434587780217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03618417409714537</v>
+      </c>
+      <c r="F80">
+        <v>-0.0230225244973057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1444544056832738</v>
+        <v>-0.1230744819886015</v>
       </c>
       <c r="C81">
-        <v>-0.004758472232849724</v>
+        <v>-0.03033824762316409</v>
       </c>
       <c r="D81">
-        <v>-0.06478082943166065</v>
+        <v>-0.01733408166972713</v>
       </c>
       <c r="E81">
-        <v>-0.02933624740077796</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.060144736471323</v>
+      </c>
+      <c r="F81">
+        <v>0.007920701987312706</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.17027018281659</v>
+        <v>-0.1642710585733643</v>
       </c>
       <c r="C82">
-        <v>0.0218585066596774</v>
+        <v>-0.02259472711952135</v>
       </c>
       <c r="D82">
-        <v>-0.0386667020690257</v>
+        <v>-0.01224991610088726</v>
       </c>
       <c r="E82">
-        <v>-0.02894070296658874</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03440698474506346</v>
+      </c>
+      <c r="F82">
+        <v>0.06529349110639558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08031860822490328</v>
+        <v>-0.06233377294031066</v>
       </c>
       <c r="C83">
-        <v>0.02896922390350872</v>
+        <v>-0.003023761164053868</v>
       </c>
       <c r="D83">
-        <v>-0.04458356478815104</v>
+        <v>-0.05085876213787963</v>
       </c>
       <c r="E83">
-        <v>0.04029061710017989</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005798045452455576</v>
+      </c>
+      <c r="F83">
+        <v>-0.04030576074358492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07305677224527631</v>
+        <v>-0.05888917481181859</v>
       </c>
       <c r="C84">
-        <v>0.006755605873597597</v>
+        <v>-0.01062569981724011</v>
       </c>
       <c r="D84">
-        <v>0.01213783335305764</v>
+        <v>-0.06509579176332446</v>
       </c>
       <c r="E84">
-        <v>0.01569942721038484</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003912935784919674</v>
+      </c>
+      <c r="F84">
+        <v>0.01041358372173433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1283663085191162</v>
+        <v>-0.1388082117806095</v>
       </c>
       <c r="C85">
-        <v>-0.004467680349183975</v>
+        <v>-0.02634365853648092</v>
       </c>
       <c r="D85">
-        <v>-0.03260501667879738</v>
+        <v>-0.01473833768687137</v>
       </c>
       <c r="E85">
-        <v>-0.02010228405805392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04117013564441942</v>
+      </c>
+      <c r="F85">
+        <v>0.04275545879039511</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1294125050370744</v>
+        <v>-0.09427233774813742</v>
       </c>
       <c r="C86">
-        <v>-0.2585262062841349</v>
+        <v>0.006261409633282324</v>
       </c>
       <c r="D86">
-        <v>-0.2099954965853835</v>
+        <v>-0.02409940268040894</v>
       </c>
       <c r="E86">
-        <v>0.8885886075730856</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1603212331942246</v>
+      </c>
+      <c r="F86">
+        <v>-0.8879081706848677</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1177027740570969</v>
+        <v>-0.09583202351802073</v>
       </c>
       <c r="C87">
-        <v>0.0956082360065261</v>
+        <v>-0.02187858138104333</v>
       </c>
       <c r="D87">
-        <v>-0.02648105863649864</v>
+        <v>-0.09174793318128469</v>
       </c>
       <c r="E87">
-        <v>-0.005037738363211076</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05382882195399324</v>
+      </c>
+      <c r="F87">
+        <v>0.07556622920322795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04995140922087032</v>
+        <v>-0.06088167540865129</v>
       </c>
       <c r="C88">
-        <v>-0.009756033640788348</v>
+        <v>-0.002403856628307765</v>
       </c>
       <c r="D88">
-        <v>-0.02224875874875209</v>
+        <v>-0.05372864518299729</v>
       </c>
       <c r="E88">
-        <v>-0.03121282963475742</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02750278534798243</v>
+      </c>
+      <c r="F88">
+        <v>0.007863031738269877</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1319933909672857</v>
+        <v>-0.1359099374663596</v>
       </c>
       <c r="C89">
-        <v>-0.1758098967429748</v>
+        <v>-0.009807358041292366</v>
       </c>
       <c r="D89">
-        <v>0.3308904528922151</v>
+        <v>0.2535650399093565</v>
       </c>
       <c r="E89">
-        <v>0.002673612705344539</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.09183073942935666</v>
+      </c>
+      <c r="F89">
+        <v>0.01326979768101543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.09923250597727319</v>
+        <v>-0.147898561921736</v>
       </c>
       <c r="C90">
-        <v>-0.1359834988191472</v>
+        <v>-0.02747098170707126</v>
       </c>
       <c r="D90">
-        <v>0.2606068657364297</v>
+        <v>0.2659107766653492</v>
       </c>
       <c r="E90">
-        <v>0.00604161374423601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1098711576881246</v>
+      </c>
+      <c r="F90">
+        <v>0.0162651275758641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08683634353540602</v>
+        <v>-0.1193934490993789</v>
       </c>
       <c r="C91">
-        <v>-0.003135226151461476</v>
+        <v>-0.01695283585201271</v>
       </c>
       <c r="D91">
-        <v>-0.03717844291208584</v>
+        <v>0.009017947229120797</v>
       </c>
       <c r="E91">
-        <v>0.004640054771966283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0583167996709226</v>
+      </c>
+      <c r="F91">
+        <v>-0.01519038350385182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1178650276648719</v>
+        <v>-0.1499662530676045</v>
       </c>
       <c r="C92">
-        <v>-0.1350550220655815</v>
+        <v>-0.01903275430592044</v>
       </c>
       <c r="D92">
-        <v>0.2951632916735611</v>
+        <v>0.292674625246292</v>
       </c>
       <c r="E92">
-        <v>0.01460095925259297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1041698645564646</v>
+      </c>
+      <c r="F92">
+        <v>0.009082307062801479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.09979232382541796</v>
+        <v>-0.1520568312291803</v>
       </c>
       <c r="C93">
-        <v>-0.1541549575355878</v>
+        <v>-0.02340629816584494</v>
       </c>
       <c r="D93">
-        <v>0.2937633854671158</v>
+        <v>0.2658970161278279</v>
       </c>
       <c r="E93">
-        <v>0.02511335657815022</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07740525354510205</v>
+      </c>
+      <c r="F93">
+        <v>0.0179702020730325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1451161998277605</v>
+        <v>-0.1326082570184519</v>
       </c>
       <c r="C94">
-        <v>-0.003594065738350994</v>
+        <v>-0.02364511346246365</v>
       </c>
       <c r="D94">
-        <v>-0.04173972475481148</v>
+        <v>-0.04538452530358798</v>
       </c>
       <c r="E94">
-        <v>-0.07165015981863068</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06079745050574965</v>
+      </c>
+      <c r="F94">
+        <v>0.03232333198804616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1183088113519616</v>
+        <v>-0.1260425720200881</v>
       </c>
       <c r="C95">
-        <v>-0.002485150815012984</v>
+        <v>-0.004726556318714608</v>
       </c>
       <c r="D95">
-        <v>-0.03802461147437518</v>
+        <v>-0.09047613496866573</v>
       </c>
       <c r="E95">
-        <v>-0.03235345851021052</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04519856973557555</v>
+      </c>
+      <c r="F95">
+        <v>-0.00973200822630672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01434835435530754</v>
+        <v>-0.0989600037156806</v>
       </c>
       <c r="C96">
-        <v>0.0012685402748121</v>
+        <v>0.9887802511350154</v>
       </c>
       <c r="D96">
-        <v>0.001549828968457865</v>
+        <v>0.03531746410670041</v>
       </c>
       <c r="E96">
-        <v>-2.859681185976579e-05</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05799593227677774</v>
+      </c>
+      <c r="F96">
+        <v>0.04444680106633257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1711049770423927</v>
+        <v>-0.1907064906774475</v>
       </c>
       <c r="C97">
-        <v>-0.03782116330254771</v>
+        <v>0.009353887039083974</v>
       </c>
       <c r="D97">
-        <v>-0.03718704067803944</v>
+        <v>0.01900271381889918</v>
       </c>
       <c r="E97">
-        <v>-0.0449490631556924</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01266830531398141</v>
+      </c>
+      <c r="F97">
+        <v>-0.1268895277417429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2492614600689837</v>
+        <v>-0.2054229066951406</v>
       </c>
       <c r="C98">
-        <v>0.01985003690099441</v>
+        <v>-0.007257922526866026</v>
       </c>
       <c r="D98">
-        <v>0.02990179476309024</v>
+        <v>-0.01007036377887533</v>
       </c>
       <c r="E98">
-        <v>0.09527910991909751</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09576599795854471</v>
+      </c>
+      <c r="F98">
+        <v>-0.1097942036821291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04672703992059901</v>
+        <v>-0.05563444351516341</v>
       </c>
       <c r="C99">
-        <v>-0.01718709261469211</v>
+        <v>0.004285978715600496</v>
       </c>
       <c r="D99">
-        <v>-0.002766373176849351</v>
+        <v>-0.03745219775022336</v>
       </c>
       <c r="E99">
-        <v>-0.04818792156554288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02496178663373861</v>
+      </c>
+      <c r="F99">
+        <v>0.003981801859123063</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1291718334573664</v>
+        <v>-0.12288437657935</v>
       </c>
       <c r="C100">
-        <v>0.8279392912021294</v>
+        <v>0.05231885521827744</v>
       </c>
       <c r="D100">
-        <v>0.3895614758386609</v>
+        <v>-0.3493964850910152</v>
       </c>
       <c r="E100">
-        <v>0.272057907503086</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8923920291968801</v>
+      </c>
+      <c r="F100">
+        <v>-0.08634499934774746</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02968088324863951</v>
+        <v>-0.02700847595947892</v>
       </c>
       <c r="C101">
-        <v>0.008847136408307569</v>
+        <v>-0.008346615771133178</v>
       </c>
       <c r="D101">
-        <v>0.002512600216865029</v>
+        <v>-0.03155632595662877</v>
       </c>
       <c r="E101">
-        <v>0.001129356878540705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01107281302300357</v>
+      </c>
+      <c r="F101">
+        <v>-0.01388555791047156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
